--- a/encriptadorarchivosenrust/creadorclaves/log/logcredenciales.xlsx
+++ b/encriptadorarchivosenrust/creadorclaves/log/logcredenciales.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="aviso" sheetId="1" r:id="rId1"/>
+    <sheet name="LOG_INFORME" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
